--- a/ICD-10 conversions_7_8_20.xlsx
+++ b/ICD-10 conversions_7_8_20.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Desktop\Johns-Hopkins-Overuse-Project-with-Segal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="856" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="3900" yWindow="470" windowWidth="20730" windowHeight="11760" tabRatio="856" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -40,7 +45,7 @@
     <definedName name="OLE_LINK3" localSheetId="1">'Indicator Descriptions'!$B$19</definedName>
     <definedName name="OLE_LINK4" localSheetId="1">'Indicator Descriptions'!$B$20</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="602">
   <si>
     <t>Working Number</t>
   </si>
@@ -2588,11 +2593,14 @@
   <si>
     <t>people with DIAGNOSES of low back pain without redflags</t>
   </si>
+  <si>
+    <t>don't we need a code for no dye since they need to have dye and not dye to pop?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="44">
     <font>
       <sz val="12"/>
@@ -4263,7 +4271,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4647,7 +4655,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4661,7 +4669,7 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="98.5" style="2" customWidth="1"/>
   </cols>
@@ -4671,7 +4679,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="31.5">
+    <row r="2" spans="1:1" ht="31">
       <c r="A2" s="17" t="s">
         <v>265</v>
       </c>
@@ -4750,7 +4758,7 @@
     <row r="18" spans="1:1">
       <c r="A18" s="17"/>
     </row>
-    <row r="19" spans="1:1" ht="47.25">
+    <row r="19" spans="1:1" ht="46.5">
       <c r="A19" s="17" t="s">
         <v>268</v>
       </c>
@@ -4835,32 +4843,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="6" style="214" customWidth="1"/>
-    <col min="2" max="2" width="21.625" style="215" customWidth="1"/>
-    <col min="3" max="3" width="35.625" style="216" customWidth="1"/>
+    <col min="2" max="2" width="21.58203125" style="215" customWidth="1"/>
+    <col min="3" max="3" width="35.58203125" style="216" customWidth="1"/>
     <col min="4" max="4" width="20" style="217" customWidth="1"/>
     <col min="5" max="5" width="13" style="362" customWidth="1"/>
-    <col min="6" max="6" width="33.125" style="242" customWidth="1"/>
-    <col min="7" max="7" width="41.375" style="242" customWidth="1"/>
+    <col min="6" max="6" width="33.08203125" style="242" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" style="242" customWidth="1"/>
     <col min="8" max="8" width="20" style="370" customWidth="1"/>
     <col min="9" max="9" width="12.5" style="218" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13.5" style="218" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="307" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="7.5" style="307" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="307" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="27" style="253" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="253" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="253" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="8.875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="253" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="8.83203125" customWidth="1"/>
     <col min="37" max="37" width="36" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5021,7 +5029,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="53" customFormat="1" ht="95.45" customHeight="1">
+    <row r="4" spans="1:37" s="53" customFormat="1" ht="95.5" customHeight="1">
       <c r="A4" s="200">
         <v>1</v>
       </c>
@@ -5425,7 +5433,7 @@
       </c>
       <c r="AK8" s="358"/>
     </row>
-    <row r="9" spans="1:37" s="48" customFormat="1" ht="89.25">
+    <row r="9" spans="1:37" s="48" customFormat="1" ht="91">
       <c r="A9" s="200">
         <v>6</v>
       </c>
@@ -5585,7 +5593,7 @@
       </c>
       <c r="AK10" s="357"/>
     </row>
-    <row r="11" spans="1:37" s="48" customFormat="1" ht="76.5">
+    <row r="11" spans="1:37" s="48" customFormat="1" ht="78">
       <c r="A11" s="200">
         <v>8</v>
       </c>
@@ -6057,7 +6065,7 @@
       </c>
       <c r="AK16" s="357"/>
     </row>
-    <row r="17" spans="1:37" s="48" customFormat="1" ht="102">
+    <row r="17" spans="1:37" s="48" customFormat="1" ht="104">
       <c r="A17" s="200">
         <v>14</v>
       </c>
@@ -6133,7 +6141,7 @@
       </c>
       <c r="AK17" s="357"/>
     </row>
-    <row r="18" spans="1:37" s="48" customFormat="1" ht="102">
+    <row r="18" spans="1:37" s="48" customFormat="1" ht="104">
       <c r="A18" s="200">
         <v>15</v>
       </c>
@@ -6213,7 +6221,7 @@
       </c>
       <c r="AK18" s="357"/>
     </row>
-    <row r="19" spans="1:37" s="48" customFormat="1" ht="76.5">
+    <row r="19" spans="1:37" s="48" customFormat="1" ht="78">
       <c r="A19" s="200">
         <v>16</v>
       </c>
@@ -6291,7 +6299,7 @@
       </c>
       <c r="AK19" s="357"/>
     </row>
-    <row r="20" spans="1:37" s="48" customFormat="1" ht="127.5">
+    <row r="20" spans="1:37" s="48" customFormat="1" ht="130">
       <c r="A20" s="200">
         <v>17</v>
       </c>
@@ -6669,7 +6677,7 @@
       </c>
       <c r="AK24" s="341"/>
     </row>
-    <row r="25" spans="1:37" ht="89.25">
+    <row r="25" spans="1:37" ht="91">
       <c r="A25" s="197">
         <v>22</v>
       </c>
@@ -10718,22 +10726,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP127"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="70.875" customWidth="1"/>
-    <col min="5" max="5" width="8.875" style="257"/>
-    <col min="6" max="15" width="8.875" style="3"/>
-    <col min="16" max="16" width="8.875" style="3" customWidth="1"/>
-    <col min="17" max="17" width="8.875" style="3"/>
-    <col min="18" max="18" width="8.875" style="3" customWidth="1"/>
-    <col min="19" max="94" width="8.875" style="3"/>
+    <col min="4" max="4" width="70.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="257"/>
+    <col min="6" max="15" width="8.83203125" style="3"/>
+    <col min="16" max="16" width="8.83203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="3"/>
+    <col min="18" max="18" width="8.83203125" style="3" customWidth="1"/>
+    <col min="19" max="94" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:94">
@@ -21351,17 +21359,17 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="50.5" customWidth="1"/>
     <col min="7" max="22" width="33" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="48" customFormat="1" ht="12.75">
+    <row r="1" spans="1:96" s="48" customFormat="1" ht="13.5">
       <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
@@ -21471,7 +21479,7 @@
       <c r="CQ1" s="44"/>
       <c r="CR1" s="44"/>
     </row>
-    <row r="2" spans="1:96" s="24" customFormat="1" ht="31.5">
+    <row r="2" spans="1:96" s="24" customFormat="1" ht="31">
       <c r="A2" s="141">
         <v>10</v>
       </c>
@@ -22036,15 +22044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ162"/>
   <sheetViews>
-    <sheetView topLeftCell="B139" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="48" customWidth="1"/>
-    <col min="3" max="3" width="88.875" style="48" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="88.83203125" style="48" customWidth="1"/>
     <col min="4" max="4" width="13" style="44" customWidth="1"/>
     <col min="5" max="121" width="11" style="44"/>
     <col min="122" max="16384" width="11" style="48"/>
@@ -24781,7 +24789,9 @@
         <f t="shared" si="1"/>
         <v>BW2000Z</v>
       </c>
-      <c r="E34" s="44"/>
+      <c r="E34" s="238" t="s">
+        <v>601</v>
+      </c>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
@@ -24913,7 +24923,9 @@
         <f t="shared" si="1"/>
         <v>BW2010Z</v>
       </c>
-      <c r="E35" s="44"/>
+      <c r="E35" s="238" t="s">
+        <v>601</v>
+      </c>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
@@ -25045,7 +25057,9 @@
         <f t="shared" si="1"/>
         <v>BW20Y0Z</v>
       </c>
-      <c r="E36" s="44"/>
+      <c r="E36" s="238" t="s">
+        <v>601</v>
+      </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
@@ -36111,20 +36125,20 @@
   <dimension ref="A1:AG184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.5" style="277" customWidth="1"/>
-    <col min="2" max="2" width="28.375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="37" customWidth="1"/>
     <col min="3" max="3" width="11" style="36" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="36" customWidth="1"/>
     <col min="5" max="5" width="47.5" style="301" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="39"/>
-    <col min="7" max="33" width="10.875" style="40"/>
-    <col min="34" max="16384" width="10.875" style="5"/>
+    <col min="6" max="6" width="10.83203125" style="39"/>
+    <col min="7" max="33" width="10.83203125" style="40"/>
+    <col min="34" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="6" customFormat="1" ht="20.25" customHeight="1">
@@ -39376,7 +39390,7 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39390,7 +39404,7 @@
       <selection activeCell="A36" sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="98" customWidth="1"/>
   </cols>
